--- a/doc/Manual/Batchmode/StageStructFile.xlsx
+++ b/doc/Manual/Batchmode/StageStructFile.xlsx
@@ -1,35 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\Manual\Batchmode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\github\rs_batch_dev\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE1310-8B58-4B0D-848E-49631571011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="615" windowWidth="19635" windowHeight="7425"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
     <sheet name="StageStructure" sheetId="4" r:id="rId2"/>
-    <sheet name="TransMatrix sexual" sheetId="5" r:id="rId3"/>
-    <sheet name="TransMatrix asexual,implicit" sheetId="7" r:id="rId4"/>
-    <sheet name="Stage Weights sexual" sheetId="6" r:id="rId5"/>
-    <sheet name="Stage Weights asexual,implicit" sheetId="8" r:id="rId6"/>
+    <sheet name="TransMatrix asexual 1 stage" sheetId="9" r:id="rId3"/>
+    <sheet name="TransMatrix asexual 2 stages" sheetId="7" r:id="rId4"/>
+    <sheet name="TransMatrix sexual 2 stages" sheetId="5" r:id="rId5"/>
+    <sheet name="Stage Weights sexual" sheetId="6" r:id="rId6"/>
+    <sheet name="Stage Weights asexual,implicit" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Steve Palmer</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,12 +49,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Steve Palmer</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -465,7 +467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -626,17 +628,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -655,14 +652,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -691,9 +686,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -731,9 +726,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -768,7 +763,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,7 +798,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -976,266 +971,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1246,7 +1241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1256,754 +1251,753 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1000</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
         <v>-9</v>
       </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
         <v>-9</v>
       </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>1000</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>-9</v>
       </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
         <v>-9</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>1000</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
         <v>-9</v>
       </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
         <v>-9</v>
       </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5" t="s">
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.9</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.9</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
         <v>-9</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="s">
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.8</v>
       </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
         <v>-9</v>
       </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5" t="s">
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.7</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
         <v>-9</v>
       </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="s">
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>0.9</v>
       </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5" t="s">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
         <v>0.7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>-9</v>
       </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="s">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>0.8</v>
       </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>1000</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.9</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="s">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>-9</v>
       </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5" t="s">
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.8</v>
       </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-9</v>
       </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5" t="s">
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>1000</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
         <v>-9</v>
       </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="s">
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>0.8</v>
       </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
         <v>0.5</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>1000</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.8</v>
       </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>0.75</v>
       </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="s">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>1000</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.8</v>
       </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2" t="s">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>0.8</v>
       </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="s">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2014,170 +2008,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD70802-07FD-4D0F-9BFE-8A3084CA253C}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>40</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0.9</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>8</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>0.6</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.22</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.8</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2186,83 +2065,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="22">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22">
-        <v>2</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2.5</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.22</v>
-      </c>
-      <c r="D4">
-        <v>0.8</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2270,38 +2098,210 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.8</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.22</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1">
@@ -2323,8 +2323,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B3">
@@ -2346,8 +2346,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -2369,8 +2369,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -2392,8 +2392,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -2415,8 +2415,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B7">
@@ -2444,30 +2444,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="22">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22">
+      <c r="B1" s="15">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -2480,8 +2480,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3">
@@ -2494,8 +2494,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4">

--- a/doc/Manual/Batchmode/StageStructFile.xlsx
+++ b/doc/Manual/Batchmode/StageStructFile.xlsx
@@ -1,74 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\github\rs_batch_dev\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE1310-8B58-4B0D-848E-49631571011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA89D0DE-B6D2-4AE8-AAAD-2BCAC291156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11235" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
     <sheet name="StageStructure" sheetId="4" r:id="rId2"/>
     <sheet name="TransMatrix asexual 1 stage" sheetId="9" r:id="rId3"/>
-    <sheet name="TransMatrix asexual 2 stages" sheetId="7" r:id="rId4"/>
-    <sheet name="TransMatrix sexual 2 stages" sheetId="5" r:id="rId5"/>
-    <sheet name="Stage Weights sexual" sheetId="6" r:id="rId6"/>
-    <sheet name="Stage Weights asexual,implicit" sheetId="8" r:id="rId7"/>
+    <sheet name="TransMatrix sexual 2 stages" sheetId="5" r:id="rId4"/>
+    <sheet name="Stage Weights sexual" sheetId="6" r:id="rId5"/>
+    <sheet name="Stage Weights asexual,implicit" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Steve Palmer</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>For all cells in the matrix, any numeric value is allowed</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Steve Palmer</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>For all cells in the matrix, any numeric value is allowed</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,7 +424,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,12 +483,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,24 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -630,10 +559,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -652,19 +577,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -975,262 +906,262 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="7"/>
+    <col min="1" max="1" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1248,756 +1179,757 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
         <v>1000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="G2" s="14">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
         <v>-9</v>
       </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14">
         <v>-9</v>
       </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="14">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
         <v>1000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
         <v>-9</v>
       </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="O3" s="14">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
         <v>-9</v>
       </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="Q3" s="14">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
         <v>1000</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
         <v>-9</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
         <v>-9</v>
       </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.9</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="14">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14">
         <v>0.9</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
         <v>-9</v>
       </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="Q5" s="14">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="14">
+        <v>1</v>
+      </c>
+      <c r="L6" s="14">
         <v>0.8</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="M6" s="14">
+        <v>1</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
         <v>-9</v>
       </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="Q6" s="14">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
         <v>0.7</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
         <v>-9</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+      <c r="O7" s="14">
+        <v>1</v>
+      </c>
+      <c r="P7" s="14">
         <v>0.9</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
         <v>0.7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="14">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
         <v>-9</v>
       </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="O8" s="14">
+        <v>1</v>
+      </c>
+      <c r="P8" s="14">
         <v>0.8</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="Q8" s="14">
+        <v>1</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
         <v>1000</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
+      <c r="L9" s="14">
         <v>0.9</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
         <v>-9</v>
       </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14">
         <v>0.8</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="M10" s="14">
+        <v>1</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
         <v>-9</v>
       </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="s">
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
         <v>1000</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
         <v>-9</v>
       </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="s">
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
+      <c r="O11" s="14">
+        <v>1</v>
+      </c>
+      <c r="P11" s="14">
         <v>0.8</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="Q11" s="14">
+        <v>1</v>
+      </c>
+      <c r="R11" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
         <v>0.5</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
         <v>1000</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14">
         <v>0.8</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
+      <c r="O12" s="14">
+        <v>1</v>
+      </c>
+      <c r="P12" s="14">
         <v>0.75</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="Q12" s="14">
+        <v>1</v>
+      </c>
+      <c r="R12" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
         <v>1000</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="14">
+        <v>1</v>
+      </c>
+      <c r="L13" s="14">
         <v>0.8</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="M13" s="14">
+        <v>1</v>
+      </c>
+      <c r="N13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
+      <c r="O13" s="14">
+        <v>1</v>
+      </c>
+      <c r="P13" s="14">
         <v>0.8</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="Q13" s="14">
+        <v>1</v>
+      </c>
+      <c r="R13" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2011,13 +1943,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD70802-07FD-4D0F-9BFE-8A3084CA253C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2031,7 +1963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2045,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2065,32 +1997,173 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="14">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2098,57 +2171,53 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="14">
         <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2156,112 +2225,120 @@
       <c r="G2">
         <v>2.5</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.6</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>0.5</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.22</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0.8</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2270,62 +2347,46 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B1" s="11">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1.5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2334,182 +2395,24 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1.5</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.7</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.7</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="15">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1.5</v>
-      </c>
-      <c r="D2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.7</v>
-      </c>
-      <c r="D4">
-        <v>0.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>